--- a/output/Portfolio.xlsx
+++ b/output/Portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/alex_chiang/documents/github/stock-investment-robo-using-neuralnetwork-and-meanvariancemodel/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex_chiang/Documents/GitHub/Stock-Investment-Robo-using-NeuralNetwork-and-MeanVarianceModel/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60ED376-2F4C-6045-A348-B190EB55C924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7DDC3F-DB5D-A04B-94C3-8F2E04C71839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
         <xdr:cNvPr id="3" name="portfolio">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81D35DD-7A52-5748-957C-F40AAE0C1A88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B91ACA-87CF-D243-B4FB-459A844242F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,9 +509,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
@@ -541,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>0.1376</v>
+        <v>0.1585</v>
       </c>
       <c r="F2">
         <v>0.115</v>
@@ -552,7 +557,7 @@
         <v>42471</v>
       </c>
       <c r="B3">
-        <v>1014.714177330089</v>
+        <v>1070.643219767511</v>
       </c>
       <c r="C3">
         <v>1052.654597822919</v>
@@ -561,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.19550000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="F3">
         <v>0.1739</v>
@@ -572,7 +577,7 @@
         <v>42558</v>
       </c>
       <c r="B4">
-        <v>1014.971605590795</v>
+        <v>1053.783279591406</v>
       </c>
       <c r="C4">
         <v>1054.2733050988679</v>
@@ -581,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>0.70379999999999998</v>
+        <v>0.78859999999999997</v>
       </c>
       <c r="F4">
         <v>0.6613</v>
@@ -592,7 +597,7 @@
         <v>42646</v>
       </c>
       <c r="B5">
-        <v>1114.3207541209681</v>
+        <v>1207.7061662238989</v>
       </c>
       <c r="C5">
         <v>1118.4430198807661</v>
@@ -603,7 +608,7 @@
         <v>42731</v>
       </c>
       <c r="B6">
-        <v>1018.06117108608</v>
+        <v>1201.1757056729659</v>
       </c>
       <c r="C6">
         <v>1103.4660351467969</v>
@@ -614,7 +619,7 @@
         <v>42830</v>
       </c>
       <c r="B7">
-        <v>1174.252287588203</v>
+        <v>1381.787668666524</v>
       </c>
       <c r="C7">
         <v>1188.534283708846</v>
@@ -625,7 +630,7 @@
         <v>42919</v>
       </c>
       <c r="B8">
-        <v>1229.360917964415</v>
+        <v>1437.4826562759561</v>
       </c>
       <c r="C8">
         <v>1241.763926809645</v>
@@ -636,7 +641,7 @@
         <v>43003</v>
       </c>
       <c r="B9">
-        <v>1206.645456391371</v>
+        <v>1492.278435698707</v>
       </c>
       <c r="C9">
         <v>1246.163154541169</v>
@@ -647,7 +652,7 @@
         <v>43090</v>
       </c>
       <c r="B10">
-        <v>1227.011410935484</v>
+        <v>1532.9065345693471</v>
       </c>
       <c r="C10">
         <v>1266.4942875024519</v>
@@ -658,7 +663,7 @@
         <v>43186</v>
       </c>
       <c r="B11">
-        <v>1257.0607725490779</v>
+        <v>1451.219014736866</v>
       </c>
       <c r="C11">
         <v>1308.885573300066</v>
@@ -669,7 +674,7 @@
         <v>43277</v>
       </c>
       <c r="B12">
-        <v>1315.0206237489069</v>
+        <v>1449.2317416708579</v>
       </c>
       <c r="C12">
         <v>1285.019717283556</v>
@@ -680,7 +685,7 @@
         <v>43361</v>
       </c>
       <c r="B13">
-        <v>1363.93847856404</v>
+        <v>1520.194695448839</v>
       </c>
       <c r="C13">
         <v>1295.3600542291399</v>
@@ -691,7 +696,7 @@
         <v>43447</v>
       </c>
       <c r="B14">
-        <v>1221.2268998014911</v>
+        <v>1411.494274778142</v>
       </c>
       <c r="C14">
         <v>1181.746220891564</v>
@@ -702,7 +707,7 @@
         <v>43546</v>
       </c>
       <c r="B15">
-        <v>1335.317479406719</v>
+        <v>1618.838876699268</v>
       </c>
       <c r="C15">
         <v>1271.741647541347</v>
@@ -713,7 +718,7 @@
         <v>43636</v>
       </c>
       <c r="B16">
-        <v>1428.1660921056009</v>
+        <v>1669.0213474898731</v>
       </c>
       <c r="C16">
         <v>1288.03063079752</v>
@@ -724,7 +729,7 @@
         <v>43724</v>
       </c>
       <c r="B17">
-        <v>1667.1679451038949</v>
+        <v>1898.8183079484629</v>
       </c>
       <c r="C17">
         <v>1293.111096605021</v>
@@ -735,7 +740,7 @@
         <v>43811</v>
       </c>
       <c r="B18">
-        <v>1771.826648222868</v>
+        <v>1941.332670109849</v>
       </c>
       <c r="C18">
         <v>1388.347825028176</v>
@@ -746,7 +751,7 @@
         <v>43908</v>
       </c>
       <c r="B19">
-        <v>1350.6664326687189</v>
+        <v>1482.3193161379379</v>
       </c>
       <c r="C19">
         <v>1107.21735992598</v>
@@ -757,7 +762,7 @@
         <v>43997</v>
       </c>
       <c r="B20">
-        <v>1586.573275464579</v>
+        <v>1839.3193097197641</v>
       </c>
       <c r="C20">
         <v>1372.8041652342631</v>
@@ -768,7 +773,7 @@
         <v>44083</v>
       </c>
       <c r="B21">
-        <v>1742.395973250181</v>
+        <v>1955.2214333512929</v>
       </c>
       <c r="C21">
         <v>1537.6072799664889</v>
@@ -779,7 +784,7 @@
         <v>44172</v>
       </c>
       <c r="B22">
-        <v>1905.4085377407459</v>
+        <v>2086.5716736801692</v>
       </c>
       <c r="C22">
         <v>1723.4409547892319</v>

--- a/output/Portfolio.xlsx
+++ b/output/Portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex_chiang/Documents/GitHub/Stock-Investment-Robo-using-NeuralNetwork-and-MeanVarianceModel/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/alex_chiang/documents/github/stock-investment-robot-using-neuralnetwork-and-meanvariancemodel/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7DDC3F-DB5D-A04B-94C3-8F2E04C71839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B9C3B-7B65-2843-B9A2-74E37C107C27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -151,7 +151,7 @@
         <xdr:cNvPr id="3" name="portfolio">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B91ACA-87CF-D243-B4FB-459A844242F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A02654-66D4-5848-B863-3386C86584F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,14 +509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="21.3984375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
@@ -546,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>0.1585</v>
+        <v>0.161</v>
       </c>
       <c r="F2">
         <v>0.115</v>
@@ -557,7 +552,7 @@
         <v>42471</v>
       </c>
       <c r="B3">
-        <v>1070.643219767511</v>
+        <v>1066.4726879027071</v>
       </c>
       <c r="C3">
         <v>1052.654597822919</v>
@@ -566,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.20100000000000001</v>
+        <v>0.2092</v>
       </c>
       <c r="F3">
         <v>0.1739</v>
@@ -577,7 +572,7 @@
         <v>42558</v>
       </c>
       <c r="B4">
-        <v>1053.783279591406</v>
+        <v>1060.0702602288909</v>
       </c>
       <c r="C4">
         <v>1054.2733050988679</v>
@@ -586,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>0.78859999999999997</v>
+        <v>0.76959999999999995</v>
       </c>
       <c r="F4">
         <v>0.6613</v>
@@ -597,7 +592,7 @@
         <v>42646</v>
       </c>
       <c r="B5">
-        <v>1207.7061662238989</v>
+        <v>1219.5991288844029</v>
       </c>
       <c r="C5">
         <v>1118.4430198807661</v>
@@ -608,7 +603,7 @@
         <v>42731</v>
       </c>
       <c r="B6">
-        <v>1201.1757056729659</v>
+        <v>1129.6417106417809</v>
       </c>
       <c r="C6">
         <v>1103.4660351467969</v>
@@ -619,7 +614,7 @@
         <v>42830</v>
       </c>
       <c r="B7">
-        <v>1381.787668666524</v>
+        <v>1293.996030937672</v>
       </c>
       <c r="C7">
         <v>1188.534283708846</v>
@@ -630,7 +625,7 @@
         <v>42919</v>
       </c>
       <c r="B8">
-        <v>1437.4826562759561</v>
+        <v>1343.058622416838</v>
       </c>
       <c r="C8">
         <v>1241.763926809645</v>
@@ -641,7 +636,7 @@
         <v>43003</v>
       </c>
       <c r="B9">
-        <v>1492.278435698707</v>
+        <v>1428.4462543110681</v>
       </c>
       <c r="C9">
         <v>1246.163154541169</v>
@@ -652,7 +647,7 @@
         <v>43090</v>
       </c>
       <c r="B10">
-        <v>1532.9065345693471</v>
+        <v>1463.140017282358</v>
       </c>
       <c r="C10">
         <v>1266.4942875024519</v>
@@ -663,7 +658,7 @@
         <v>43186</v>
       </c>
       <c r="B11">
-        <v>1451.219014736866</v>
+        <v>1454.861690311531</v>
       </c>
       <c r="C11">
         <v>1308.885573300066</v>
@@ -674,7 +669,7 @@
         <v>43277</v>
       </c>
       <c r="B12">
-        <v>1449.2317416708579</v>
+        <v>1436.7087593343581</v>
       </c>
       <c r="C12">
         <v>1285.019717283556</v>
@@ -685,7 +680,7 @@
         <v>43361</v>
       </c>
       <c r="B13">
-        <v>1520.194695448839</v>
+        <v>1494.578231801326</v>
       </c>
       <c r="C13">
         <v>1295.3600542291399</v>
@@ -696,7 +691,7 @@
         <v>43447</v>
       </c>
       <c r="B14">
-        <v>1411.494274778142</v>
+        <v>1298.422610262945</v>
       </c>
       <c r="C14">
         <v>1181.746220891564</v>
@@ -707,7 +702,7 @@
         <v>43546</v>
       </c>
       <c r="B15">
-        <v>1618.838876699268</v>
+        <v>1449.008650718604</v>
       </c>
       <c r="C15">
         <v>1271.741647541347</v>
@@ -718,7 +713,7 @@
         <v>43636</v>
       </c>
       <c r="B16">
-        <v>1669.0213474898731</v>
+        <v>1490.3602436999099</v>
       </c>
       <c r="C16">
         <v>1288.03063079752</v>
@@ -729,7 +724,7 @@
         <v>43724</v>
       </c>
       <c r="B17">
-        <v>1898.8183079484629</v>
+        <v>1729.274419028209</v>
       </c>
       <c r="C17">
         <v>1293.111096605021</v>
@@ -740,7 +735,7 @@
         <v>43811</v>
       </c>
       <c r="B18">
-        <v>1941.332670109849</v>
+        <v>1861.8893415527721</v>
       </c>
       <c r="C18">
         <v>1388.347825028176</v>
@@ -751,7 +746,7 @@
         <v>43908</v>
       </c>
       <c r="B19">
-        <v>1482.3193161379379</v>
+        <v>1436.8454267304769</v>
       </c>
       <c r="C19">
         <v>1107.21735992598</v>
@@ -762,7 +757,7 @@
         <v>43997</v>
       </c>
       <c r="B20">
-        <v>1839.3193097197641</v>
+        <v>1694.404489382152</v>
       </c>
       <c r="C20">
         <v>1372.8041652342631</v>
@@ -773,7 +768,7 @@
         <v>44083</v>
       </c>
       <c r="B21">
-        <v>1955.2214333512929</v>
+        <v>1781.5107955214769</v>
       </c>
       <c r="C21">
         <v>1537.6072799664889</v>
@@ -784,7 +779,7 @@
         <v>44172</v>
       </c>
       <c r="B22">
-        <v>2086.5716736801692</v>
+        <v>2109.741347765334</v>
       </c>
       <c r="C22">
         <v>1723.4409547892319</v>
